--- a/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">報機明細!$A$4:$Q$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -139,41 +139,7 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_NEWSENDNAME}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_GETNAME}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_GETADDRESS}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_UNIVALENT_NEW}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IL_FINALCOST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -271,7 +237,23 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
+    <t>${table:data.CO_NAME}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
     <t>${table:data.IL_NEWPCS_NOREPEAT}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_UNIVALENT_NEW}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_FINALCOST_NOREPEAT}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_GETNAME_NEW}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1020,6 +1002,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1083,21 +1071,7 @@
     <cellStyle name="警告文本" xfId="41"/>
     <cellStyle name="쉼표 [0] 10" xfId="42"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1627,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1654,50 +1628,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1722,10 +1696,10 @@
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -1783,12 +1757,12 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="22" t="s">
@@ -1797,10 +1771,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -1809,43 +1783,43 @@
         <v>25</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1859,114 +1833,106 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$S5="普特貨"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10350" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10356" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">快遞專區倉單         </t>
   </si>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>${table:data.IL_GETADDRESS}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_TAX2}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -256,11 +252,23 @@
     <t>${table:data.IL_GETNAME_NEW}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>${table:data.IL_TAX2}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯出電話</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_EXTEL}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1071,7 +1079,21 @@
     <cellStyle name="警告文本" xfId="41"/>
     <cellStyle name="쉼표 [0] 10" xfId="42"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1588,7 +1610,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1605,26 +1627,27 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="7" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="5" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="58.25" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="58.19921875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="18" max="18" width="24.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
@@ -1745,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -1757,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
@@ -1767,14 +1790,17 @@
       </c>
       <c r="Q4" s="22" t="s">
         <v>19</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -1783,43 +1809,46 @@
         <v>25</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>28</v>
+      <c r="Q5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1833,6 +1862,14 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$T5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>$T5="普特貨"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="29" priority="31">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1840,7 +1877,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" dxfId="27" priority="29">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1848,7 +1885,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="F5">
     <cfRule type="expression" dxfId="25" priority="27">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1856,7 +1893,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="expression" dxfId="23" priority="25">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1864,7 +1901,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="expression" dxfId="21" priority="23">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1872,7 +1909,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="I5">
     <cfRule type="expression" dxfId="19" priority="21">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1880,7 +1917,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="17" priority="19">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1888,7 +1925,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="K5">
     <cfRule type="expression" dxfId="15" priority="17">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1896,7 +1933,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="L5">
     <cfRule type="expression" dxfId="13" priority="15">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1904,7 +1941,7 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="M5">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$T5="特特貨"</formula>
     </cfRule>
@@ -1912,15 +1949,15 @@
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
+  <conditionalFormatting sqref="N5">
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$T5="特特貨"</formula>
+      <formula>$S5="特特貨"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$T5="普特貨"</formula>
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$S5="特特貨"</formula>
     </cfRule>
@@ -1928,15 +1965,15 @@
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
+  <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>$S5="特特貨"</formula>
     </cfRule>
@@ -1944,7 +1981,7 @@
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="R5">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$S5="特特貨"</formula>
     </cfRule>

--- a/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">快遞專區倉單         </t>
   </si>
@@ -79,7 +79,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>關條碼</t>
     </r>
@@ -93,7 +92,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>單號</t>
     </r>
@@ -140,50 +138,6 @@
   </si>
   <si>
     <t>${table:data.IL_GETADDRESS}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.IL_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NO}</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.IL_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TEL}</t>
-    </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +160,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>IL_BAGNOEX_NOREPEAT</t>
     </r>
@@ -214,7 +167,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -257,11 +209,11 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>匯出電話</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_EXTEL}</t>
+    <t>${table:data.IL_GETTEL}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_GETNO}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -297,33 +249,28 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -335,7 +282,6 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -348,77 +294,65 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -436,7 +370,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -920,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -943,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,21 +1009,7 @@
     <cellStyle name="警告文本" xfId="41"/>
     <cellStyle name="쉼표 [0] 10" xfId="42"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1621,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1646,347 +1562,330 @@
     <col min="15" max="15" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="24.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:25" ht="33" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="13"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="39" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="B5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="21" t="s">
+      <c r="C5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="J5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="L5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="34" t="s">
+      <c r="Q5" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z4"/>
+  <autoFilter ref="A4:Y4"/>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O1:Y1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$T5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$T5="普特貨"</formula>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$S5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$S5="普特貨"</formula>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$R5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$R5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>$S5="普特貨"</formula>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$R5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$R5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$S5="普特貨"</formula>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$R5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$R5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$S5="普特貨"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$S5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$S5="普特貨"</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$R5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$R5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.11944444444444445" right="0.20972222222222223" top="0.12986111111111112" bottom="0" header="0.15902777777777777" footer="0.13958333333333334"/>

--- a/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單併X3)轉出關貿格式範例.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47346B93-7360-4A2D-BBDC-E333A8F7250C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10356" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
-    <sheet name="報機明細" sheetId="1" r:id="rId2"/>
+    <sheet name="報機明細" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">報機明細!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">報機明細!$A$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -956,58 +956,58 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 4" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="7"/>
-    <cellStyle name="3232" xfId="8"/>
-    <cellStyle name="3232 4" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="21"/>
-    <cellStyle name="ColLevel_0" xfId="22"/>
-    <cellStyle name="RowLevel_0" xfId="23"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="3232" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="3232 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ColLevel_0" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="RowLevel_0" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 4" xfId="24"/>
-    <cellStyle name="计算" xfId="50"/>
-    <cellStyle name="汇总" xfId="49"/>
+    <cellStyle name="一般 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="计算" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="汇总" xfId="49" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="26"/>
-    <cellStyle name="标题" xfId="43"/>
-    <cellStyle name="标题 1" xfId="44"/>
-    <cellStyle name="标题 2" xfId="45"/>
-    <cellStyle name="标题 3" xfId="46"/>
-    <cellStyle name="标题 4" xfId="47"/>
-    <cellStyle name="差" xfId="27"/>
-    <cellStyle name="样式 1" xfId="28"/>
-    <cellStyle name="适中" xfId="29"/>
-    <cellStyle name="常规_七逸重量總表" xfId="30"/>
-    <cellStyle name="检查单元格" xfId="48"/>
-    <cellStyle name="强调文字颜色 1" xfId="31"/>
-    <cellStyle name="强调文字颜色 2" xfId="32"/>
-    <cellStyle name="强调文字颜色 3" xfId="33"/>
-    <cellStyle name="强调文字颜色 4" xfId="34"/>
-    <cellStyle name="强调文字颜色 5" xfId="35"/>
-    <cellStyle name="强调文字颜色 6" xfId="36"/>
-    <cellStyle name="链接单元格" xfId="51"/>
-    <cellStyle name="解释性文本" xfId="37"/>
-    <cellStyle name="输入" xfId="38"/>
-    <cellStyle name="输出" xfId="39"/>
-    <cellStyle name="樣式 1" xfId="40"/>
-    <cellStyle name="警告文本" xfId="41"/>
-    <cellStyle name="쉼표 [0] 10" xfId="42"/>
+    <cellStyle name="注释" xfId="26" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="标题" xfId="43" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="标题 1" xfId="44" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="标题 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="标题 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="标题 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="差" xfId="27" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="样式 1" xfId="28" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="适中" xfId="29" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规_七逸重量總表" xfId="30" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="检查单元格" xfId="48" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="强调文字颜色 1" xfId="31" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="34" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="35" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="36" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="链接单元格" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="解释性文本" xfId="37" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="输入" xfId="38" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输出" xfId="39" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="樣式 1" xfId="40" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="警告文本" xfId="41" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="쉼표 [0] 10" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -1309,6 +1309,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1344,6 +1361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1519,28 +1553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1759,7 +1777,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4"/>
+  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="O1:Y1"/>
